--- a/docs/ll-table.xlsx
+++ b/docs/ll-table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SharedProjects\IFJ18\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fakt_skola\3 BIT\IFJ\projekt\IFJ18\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB037AC4-BA47-43DF-95D1-892DF1DED3FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F2B8F0-4859-4D61-B984-E9DA18BB0F3B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{695ECA08-4431-4D79-809C-32D046B55A8D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" xr2:uid="{695ECA08-4431-4D79-809C-32D046B55A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,489 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="113">
+  <si>
+    <t>&lt;prog&gt;</t>
+  </si>
+  <si>
+    <t>&lt;params&gt;</t>
+  </si>
+  <si>
+    <t>&lt;params_n&gt;</t>
+  </si>
+  <si>
+    <t>&lt;statement&gt;</t>
+  </si>
+  <si>
+    <t>&lt;define&gt;</t>
+  </si>
+  <si>
+    <t>&lt;args&gt;</t>
+  </si>
+  <si>
+    <t>&lt;args_n&gt;</t>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>EOL</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>inputi</t>
+  </si>
+  <si>
+    <t>inputf</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>substr</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. &lt;prog&gt; → &lt;statement&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. &lt;params&gt; → (&lt;params&gt;)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. &lt;params&gt; → ID &lt;params_n&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. &lt;params&gt; → ε  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. &lt;params_n&gt; → , ID &lt;params_n&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. &lt;params_n&gt; → ε  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. &lt;statement&gt; → &lt;statement&gt; EOL &lt;statement&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. &lt;statement&gt; → if &lt;expression&gt; then EOL &lt;statement&gt; else EOL &lt;statement&gt; end EOL   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. &lt;statement&gt; → while &lt;expression&gt; do EOL &lt;statement&gt; end EOL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. &lt;statement&gt; → ID = &lt;define&gt; EOL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. &lt;statement&gt; → &lt;define&gt; EOL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. &lt;statement&gt; → ε  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. &lt;define&gt; → ID &lt;args&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. &lt;define&gt; → inputs &lt;args&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. &lt;define&gt; → inputi &lt;args&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. &lt;define&gt; → inputf &lt;args&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. &lt;define&gt; → lenght &lt;args&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. &lt;define&gt; → ord &lt;args&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22. &lt;define&gt; → chr &lt;args&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. &lt;define&gt; → &lt;expression&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24. &lt;define&gt; → ε  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25. &lt;args&gt; → ε  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26. &lt;args&gt; → (&lt;args&gt;)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27. &lt;args&gt; → &lt;value&gt; &lt;args_n&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28. &lt;args_n&gt; → , &lt;value&gt; &lt;args_n&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29. &lt;args_n&gt; → ε   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30. &lt;value&gt; → INT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33. &lt;value&gt; → STRING   </t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>FOLLOW</t>
+  </si>
+  <si>
+    <t>∅</t>
+  </si>
+  <si>
+    <t>{ε}</t>
+  </si>
+  <si>
+    <t>{def}</t>
+  </si>
+  <si>
+    <t>{ID}</t>
+  </si>
+  <si>
+    <t>{EOL}</t>
+  </si>
+  <si>
+    <t>{(}</t>
+  </si>
+  <si>
+    <t>{)}</t>
+  </si>
+  <si>
+    <t>{if}</t>
+  </si>
+  <si>
+    <t>{then}</t>
+  </si>
+  <si>
+    <t>{else}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{(, ID}</t>
+  </si>
+  <si>
+    <t>{,}</t>
+  </si>
+  <si>
+    <t>{int, float, id, string}</t>
+  </si>
+  <si>
+    <t>{(, int, float, id, string}</t>
+  </si>
+  <si>
+    <t>{end}</t>
+  </si>
+  <si>
+    <t>{while}</t>
+  </si>
+  <si>
+    <t>{do}</t>
+  </si>
+  <si>
+    <t>{=}</t>
+  </si>
+  <si>
+    <t>{inputs}</t>
+  </si>
+  <si>
+    <t>{inputi}</t>
+  </si>
+  <si>
+    <t>{inputf}</t>
+  </si>
+  <si>
+    <t>{length}</t>
+  </si>
+  <si>
+    <t>{substr}</t>
+  </si>
+  <si>
+    <t>{ord}</t>
+  </si>
+  <si>
+    <t>{chr}</t>
+  </si>
+  <si>
+    <t>{int}</t>
+  </si>
+  <si>
+    <t>{float}</t>
+  </si>
+  <si>
+    <t>{string}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{def, EOL, if, while, ID, print, inputs, inputi, inputf, length, substr, ord, chr, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#TODO expression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{EOL, if, while, ID, print, inputs, inputi, inputf, length, substr, ord, chr, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#TODO expression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{ID, print, inputs, inputi, inputf, length, substr, ord, chr,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> #TODO expression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{$}</t>
+  </si>
+  <si>
+    <t>{EOL, )}</t>
+  </si>
+  <si>
+    <t>{end, $, EOL, else}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. &lt;prog&gt; → def ID &lt;params&gt; EOL &lt;statement&gt; end EOL     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. &lt;define&gt; → print &lt;args&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. &lt;define&gt; → substr &lt;args&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31. &lt;value&gt; → FLOAT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32. &lt;value&gt; → ID  </t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>{print}</t>
+  </si>
+  <si>
+    <t>#TODO expression</t>
+  </si>
+  <si>
+    <t>{id}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{EOL, if, while, ID, print, inputs, inputi, inputf, length, substr, ord, chr, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#TODO expression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, $}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ID, print, inputs, inputi, inputf, length, substr, ord, chr, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#TODO expression,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EOL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>PREDICT</t>
+  </si>
+  <si>
+    <t>#TODO &lt;statement_list&gt;  ??</t>
+  </si>
+  <si>
+    <t>8,9!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">možná 7,5a &lt;statement_list&gt;  →  &lt;statement&gt;  EOL &lt;statement_list&gt;               7,5b &lt;statement_list&gt; → ε </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +510,110 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +621,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -371,12 +1022,1064 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569B95E0-4C64-456F-8CD6-4B80293BFACC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="8"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10">
+        <v>2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>2</v>
+      </c>
+      <c r="R2" s="10">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10">
+        <v>2</v>
+      </c>
+      <c r="T2" s="10">
+        <v>2</v>
+      </c>
+      <c r="U2" s="10">
+        <v>2</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
+        <v>7</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16">
+        <v>8</v>
+      </c>
+      <c r="D5" s="16">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16">
+        <v>8</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16">
+        <v>8</v>
+      </c>
+      <c r="O5" s="16">
+        <v>8</v>
+      </c>
+      <c r="P5" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>8</v>
+      </c>
+      <c r="R5" s="16">
+        <v>8</v>
+      </c>
+      <c r="S5" s="16">
+        <v>8</v>
+      </c>
+      <c r="T5" s="16">
+        <v>8</v>
+      </c>
+      <c r="U5" s="16">
+        <v>8</v>
+      </c>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S12" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S13" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="I31" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="I32" t="s">
+        <v>99</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="I37" t="s">
+        <v>100</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="I38" t="s">
+        <v>49</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="I39" t="s">
+        <v>50</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="I40" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="I41" t="s">
+        <v>52</v>
+      </c>
+      <c r="S41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="I43" t="s">
+        <v>53</v>
+      </c>
+      <c r="S43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="I44" t="s">
+        <v>54</v>
+      </c>
+      <c r="S44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+      <c r="S45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s">
+        <v>56</v>
+      </c>
+      <c r="S47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>58</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>101</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>102</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>59</v>
+      </c>
+      <c r="S53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>